--- a/Mifos Automation Excels/Loan Product/967-MS-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/967-MS-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
@@ -209,9 +209,6 @@
     <t>Mifos style</t>
   </si>
   <si>
-    <t>967-MS-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment</t>
-  </si>
-  <si>
     <t>Calculate till rest frequency date</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>maximumallowedoutstandingbalancefortranchloan</t>
+  </si>
+  <si>
+    <t>967-MS-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment</t>
   </si>
 </sst>
 </file>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -614,8 +614,8 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
+      <c r="B1" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -809,7 +809,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -825,7 +825,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -838,7 +838,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" s="5">
         <v>10000</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>8</v>
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -978,10 +978,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/967-MS-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/967-MS-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment-Loanproduct.xlsx
@@ -7,15 +7,15 @@
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ProductLoan_Input" sheetId="6" r:id="rId1"/>
-    <sheet name="ProductLoan_Output" sheetId="7" r:id="rId2"/>
+    <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
+    <sheet name="ProductLoanOutput" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>productname</t>
   </si>
@@ -134,9 +134,6 @@
     <t>abc</t>
   </si>
   <si>
-    <t>maximumallowedaoutstandingbalance</t>
-  </si>
-  <si>
     <t>fundsource</t>
   </si>
   <si>
@@ -219,6 +216,15 @@
   </si>
   <si>
     <t>Same as repayment period</t>
+  </si>
+  <si>
+    <t>verifyloanproduct</t>
+  </si>
+  <si>
+    <t>accrualperiodic</t>
+  </si>
+  <si>
+    <t>maximumallowedoutstandingbalancefortranchloan</t>
   </si>
 </sst>
 </file>
@@ -592,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -609,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -747,7 +753,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -803,7 +809,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -819,23 +825,23 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="5">
-        <v>10000</v>
+        <v>25</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>8</v>
+        <v>69</v>
+      </c>
+      <c r="B29" s="5">
+        <v>10000</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -847,99 +853,107 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>41</v>
+      <c r="A31" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -953,7 +967,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -964,10 +978,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/967-MS-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/967-MS-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment-Loanproduct.xlsx
@@ -206,9 +206,6 @@
     <t>Overpayment Liability</t>
   </si>
   <si>
-    <t>Mifos style</t>
-  </si>
-  <si>
     <t>Calculate till rest frequency date</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>967-MS-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment</t>
+  </si>
+  <si>
+    <t>Penalties, Fees, Interest, Principal order</t>
   </si>
 </sst>
 </file>
@@ -282,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -296,6 +296,9 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,7 +604,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -615,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -752,8 +755,8 @@
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>63</v>
+      <c r="B18" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -809,7 +812,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -825,7 +828,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -838,7 +841,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="5">
         <v>10000</v>
@@ -854,7 +857,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>8</v>
@@ -978,10 +981,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
